--- a/biology/Zoologie/Aspidytes/Aspidytes.xlsx
+++ b/biology/Zoologie/Aspidytes/Aspidytes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspidytes est un genre d'insectes aquatiques de l'ordre des coléoptères et de la famille des Aspidytidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Aspidytes a été créé en 2002 par Ignacio Ribera (d), Rolf Georg Beutel (d), Michael Balke (d) et Alfried P. Vogler (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Aspidytes a été créé en 2002 par Ignacio Ribera (d), Rolf Georg Beutel (d), Michael Balke (d) et Alfried P. Vogler (d).
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (18 mai 2021)[2] :
-Aspidytes niobe Ribera, Beutel, Balke &amp; Vogler, 2002 - espèce type[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (18 mai 2021) :
+Aspidytes niobe Ribera, Beutel, Balke &amp; Vogler, 2002 - espèce type.
 Aspidytes wrasei Balke, Ribera &amp; Beutel, 2003</t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Problèmes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tandis qu'Aspidytes niobe vit en Afrique du Sud, Aspidytes wrasei vit en Chine, ce qui interroge les chercheurs[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tandis qu'Aspidytes niobe vit en Afrique du Sud, Aspidytes wrasei vit en Chine, ce qui interroge les chercheurs.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Aspidytes est une combinaison basée sur les termes en grec ancien ἀσπίς, aspis, « bouclier », et δύτης, dhítis, « plongeur »[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Aspidytes est une combinaison basée sur les termes en grec ancien ἀσπίς, aspis, « bouclier », et δύτης, dhítis, « plongeur ».
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) I. Ribera, R. G. Beutel, M. Balke et A. P. Vogler, « Discovery of Aspidytidae, a new family of aquatic Coleoptera », Proceedings of the Royal Society B, Royal Society, vol. 269, no 1507,‎ 22 novembre 2002, p. 2351-2356 (ISSN 0962-8452 et 1471-2954, PMID 12495503, PMCID 1691161, DOI 10.1098/RSPB.2002.2157, lire en ligne)</t>
         </is>
